--- a/data/Prices of basic commodities in Gaza/commodity-prices-in-gaza.xlsx
+++ b/data/Prices of basic commodities in Gaza/commodity-prices-in-gaza.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="commodity prices" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="215">
   <si>
     <t>أرز حبة طويلة الياسمين تايلند - 1 كغم</t>
   </si>
@@ -668,6 +668,15 @@
   </si>
   <si>
     <t>Monthly Percent Change % (August - September 2025)</t>
+  </si>
+  <si>
+    <t>Monthly Percent Change % (September - October 2025)</t>
+  </si>
+  <si>
+    <t>Monthly Percent Change % (October - November 2025)</t>
+  </si>
+  <si>
+    <t>Monthly Percent Change % (November - December 2025)</t>
   </si>
 </sst>
 </file>
@@ -1095,13 +1104,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BC48"/>
+  <dimension ref="A2:BI48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1117,12 +1126,12 @@
     <col min="9" max="9" width="12.42578125" style="5" customWidth="1"/>
     <col min="10" max="10" width="19.140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" style="5" customWidth="1"/>
-    <col min="12" max="54" width="20.85546875" style="5" customWidth="1"/>
-    <col min="55" max="55" width="20.42578125" style="5" customWidth="1"/>
-    <col min="56" max="16384" width="8.85546875" style="5"/>
+    <col min="12" max="60" width="20.85546875" style="5" customWidth="1"/>
+    <col min="61" max="61" width="20.42578125" style="5" customWidth="1"/>
+    <col min="62" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>98</v>
       </c>
@@ -1282,11 +1291,29 @@
       <c r="BB2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BC2" s="3">
+        <v>45931</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>45962</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>45992</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
@@ -1473,12 +1500,33 @@
         <f>(BA3/AY3*100-100)/100</f>
         <v>-0.55844155844155863</v>
       </c>
-      <c r="BC3" s="8">
-        <f>(BA3/F3*100-100)/100</f>
-        <v>-0.32000595858781511</v>
+      <c r="BC3" s="13">
+        <v>4.7736955432471593</v>
+      </c>
+      <c r="BD3" s="7">
+        <f>(BC3/BA3*100-100)/100</f>
+        <v>-9.1503267973855745E-2</v>
+      </c>
+      <c r="BE3" s="13">
+        <v>3.4944138239237321</v>
+      </c>
+      <c r="BF3" s="7">
+        <f>(BE3/BC3*100-100)/100</f>
+        <v>-0.26798561151079098</v>
+      </c>
+      <c r="BG3" s="13">
+        <v>3.2740453845771871</v>
+      </c>
+      <c r="BH3" s="7">
+        <f>(BG3/BE3*100-100)/100</f>
+        <v>-6.3063063063064112E-2</v>
+      </c>
+      <c r="BI3" s="8">
+        <f>(BG3/F3*100-100)/100</f>
+        <v>-0.57630000905471701</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -1665,12 +1713,33 @@
         <f t="shared" si="13"/>
         <v>-0.65121997351995442</v>
       </c>
-      <c r="BC4" s="8">
-        <f t="shared" ref="BC4:BC44" si="14">(BA4/F4*100-100)/100</f>
-        <v>1.7150757738993048</v>
+      <c r="BC4" s="13">
+        <v>235.62345679012344</v>
+      </c>
+      <c r="BD4" s="7">
+        <f t="shared" ref="BD4:BD48" si="14">(BC4/BA4*100-100)/100</f>
+        <v>-4.633646661846285E-2</v>
+      </c>
+      <c r="BE4" s="13">
+        <v>160.96296296296302</v>
+      </c>
+      <c r="BF4" s="7">
+        <f t="shared" ref="BF4:BF48" si="15">(BE4/BC4*100-100)/100</f>
+        <v>-0.31686358754027893</v>
+      </c>
+      <c r="BG4" s="13">
+        <v>92.412698412698475</v>
+      </c>
+      <c r="BH4" s="7">
+        <f t="shared" ref="BH4:BH48" si="16">(BG4/BE4*100-100)/100</f>
+        <v>-0.42587601078167092</v>
+      </c>
+      <c r="BI4" s="8">
+        <f t="shared" ref="BI4:BI44" si="17">(BG4/F4*100-100)/100</f>
+        <v>1.5524158381302016E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
@@ -1857,12 +1926,33 @@
         <f t="shared" si="13"/>
         <v>-0.7</v>
       </c>
-      <c r="BC5" s="8">
+      <c r="BC5" s="13">
+        <v>4.125</v>
+      </c>
+      <c r="BD5" s="7">
         <f t="shared" si="14"/>
-        <v>6.7142857142857144</v>
+        <v>-0.92361111111111116</v>
+      </c>
+      <c r="BE5" s="13">
+        <v>6.0375000000000005</v>
+      </c>
+      <c r="BF5" s="7">
+        <f t="shared" si="15"/>
+        <v>0.46363636363636374</v>
+      </c>
+      <c r="BG5" s="13">
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="BH5" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.17184265010352007</v>
+      </c>
+      <c r="BI5" s="8">
+        <f t="shared" si="17"/>
+        <v>-0.28571428571428598</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -2049,12 +2139,33 @@
         <f t="shared" si="13"/>
         <v>-0.16666666666666657</v>
       </c>
-      <c r="BC6" s="8">
+      <c r="BC6" s="13">
+        <v>97</v>
+      </c>
+      <c r="BD6" s="7">
         <f t="shared" si="14"/>
-        <v>5.25</v>
+        <v>-0.03</v>
+      </c>
+      <c r="BE6" s="13">
+        <v>36.057692307692314</v>
+      </c>
+      <c r="BF6" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.6282712133227597</v>
+      </c>
+      <c r="BG6" s="13">
+        <v>26.519607843137251</v>
+      </c>
+      <c r="BH6" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.2645228758169938</v>
+      </c>
+      <c r="BI6" s="8">
+        <f t="shared" si="17"/>
+        <v>0.6574754901960782</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -2241,12 +2352,33 @@
         <f t="shared" si="13"/>
         <v>0.375</v>
       </c>
-      <c r="BC7" s="8">
+      <c r="BC7" s="13">
+        <v>600</v>
+      </c>
+      <c r="BD7" s="7">
         <f t="shared" si="14"/>
-        <v>36.125</v>
+        <v>0.21212121212121218</v>
+      </c>
+      <c r="BE7" s="13">
+        <v>90</v>
+      </c>
+      <c r="BF7" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.85</v>
+      </c>
+      <c r="BG7" s="13">
+        <v>47.342105263157912</v>
+      </c>
+      <c r="BH7" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.47397660818713427</v>
+      </c>
+      <c r="BI7" s="8">
+        <f t="shared" si="17"/>
+        <v>2.5506578947368426</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>141</v>
       </c>
@@ -2433,12 +2565,33 @@
         <f t="shared" si="13"/>
         <v>-0.41348890153671014</v>
       </c>
-      <c r="BC8" s="8">
+      <c r="BC8" s="13">
+        <v>38.825855798031647</v>
+      </c>
+      <c r="BD8" s="7">
         <f t="shared" si="14"/>
-        <v>1.0841169937842037</v>
+        <v>-0.38719068413391577</v>
+      </c>
+      <c r="BE8" s="13">
+        <v>26.237425117672249</v>
+      </c>
+      <c r="BF8" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.32422802850356219</v>
+      </c>
+      <c r="BG8" s="13">
+        <v>24.56818998716302</v>
+      </c>
+      <c r="BH8" s="7">
+        <f t="shared" si="16"/>
+        <v>-6.3620386643234786E-2</v>
+      </c>
+      <c r="BI8" s="8">
+        <f t="shared" si="17"/>
+        <v>-0.19183585568542696</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>142</v>
       </c>
@@ -2625,12 +2778,33 @@
         <f t="shared" si="13"/>
         <v>0.21212121212121274</v>
       </c>
-      <c r="BC9" s="8">
+      <c r="BC9" s="13">
+        <v>24.142857142857139</v>
+      </c>
+      <c r="BD9" s="7">
         <f t="shared" si="14"/>
-        <v>25.607538802660766</v>
+        <v>-0.64590476190476209</v>
+      </c>
+      <c r="BE9" s="13">
+        <v>9.2307692307692282</v>
+      </c>
+      <c r="BF9" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.61766044606281301</v>
+      </c>
+      <c r="BG9" s="13">
+        <v>6.1428571428571406</v>
+      </c>
+      <c r="BH9" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.3345238095238095</v>
+      </c>
+      <c r="BI9" s="8">
+        <f t="shared" si="17"/>
+        <v>1.3972125435540059</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
@@ -2817,12 +2991,33 @@
         <f t="shared" si="13"/>
         <v>0.13095238095238115</v>
       </c>
-      <c r="BC10" s="8">
+      <c r="BC10" s="13">
+        <v>27.821428571428562</v>
+      </c>
+      <c r="BD10" s="7">
         <f t="shared" si="14"/>
-        <v>12.919413919413923</v>
+        <v>-0.59000000000000019</v>
+      </c>
+      <c r="BE10" s="13">
+        <v>12.384615384615376</v>
+      </c>
+      <c r="BF10" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.55485336229880533</v>
+      </c>
+      <c r="BG10" s="13">
+        <v>10.797619047619042</v>
+      </c>
+      <c r="BH10" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.12814256137237492</v>
+      </c>
+      <c r="BI10" s="8">
+        <f t="shared" si="17"/>
+        <v>1.2148962148962135</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>144</v>
       </c>
@@ -3009,12 +3204,33 @@
         <f t="shared" si="13"/>
         <v>-0.28787878787878851</v>
       </c>
-      <c r="BC11" s="8">
+      <c r="BC11" s="13">
+        <v>36.27391304347826</v>
+      </c>
+      <c r="BD11" s="7">
         <f t="shared" si="14"/>
-        <v>14.047430830039513</v>
+        <v>-0.51787234042553154</v>
+      </c>
+      <c r="BE11" s="13">
+        <v>10.565217391304353</v>
+      </c>
+      <c r="BF11" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.7087378640776697</v>
+      </c>
+      <c r="BG11" s="13">
+        <v>11.445652173913045</v>
+      </c>
+      <c r="BH11" s="7">
+        <f t="shared" si="16"/>
+        <v>8.3333333333332996E-2</v>
+      </c>
+      <c r="BI11" s="8">
+        <f t="shared" si="17"/>
+        <v>1.2891304347826091</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>145</v>
       </c>
@@ -3201,12 +3417,33 @@
         <f t="shared" si="13"/>
         <v>-0.11780821917808197</v>
       </c>
-      <c r="BC12" s="8">
+      <c r="BC12" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="BD12" s="7">
         <f t="shared" si="14"/>
-        <v>10.870967741935482</v>
+        <v>-0.44565217391304346</v>
+      </c>
+      <c r="BE12" s="13">
+        <v>14.36363636363637</v>
+      </c>
+      <c r="BF12" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.43672014260249525</v>
+      </c>
+      <c r="BG12" s="13">
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="BH12" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.33280590717299602</v>
+      </c>
+      <c r="BI12" s="8">
+        <f t="shared" si="17"/>
+        <v>1.4731182795698925</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>146</v>
       </c>
@@ -3393,12 +3630,33 @@
         <f t="shared" si="13"/>
         <v>-0.40106951871657759</v>
       </c>
-      <c r="BC13" s="8">
+      <c r="BC13" s="13">
+        <v>16.846153846153854</v>
+      </c>
+      <c r="BD13" s="7">
         <f t="shared" si="14"/>
-        <v>11.444444444444446</v>
+        <v>0.20329670329670393</v>
+      </c>
+      <c r="BE13" s="13">
+        <v>11.461538461538458</v>
+      </c>
+      <c r="BF13" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.31963470319634751</v>
+      </c>
+      <c r="BG13" s="13">
+        <v>7.2142857142857162</v>
+      </c>
+      <c r="BH13" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.37056567593480305</v>
+      </c>
+      <c r="BI13" s="8">
+        <f t="shared" si="17"/>
+        <v>5.4126984126984148</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>147</v>
       </c>
@@ -3585,12 +3843,33 @@
         <f t="shared" si="13"/>
         <v>0.12428160919540218</v>
       </c>
-      <c r="BC14" s="8">
+      <c r="BC14" s="13">
+        <v>102.30769230769235</v>
+      </c>
+      <c r="BD14" s="7">
         <f t="shared" si="14"/>
-        <v>25.083333333333329</v>
+        <v>4.5957237650528809E-2</v>
+      </c>
+      <c r="BE14" s="13">
+        <v>33</v>
+      </c>
+      <c r="BF14" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.67744360902255651</v>
+      </c>
+      <c r="BG14" s="13">
+        <v>15.285714285714281</v>
+      </c>
+      <c r="BH14" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.53679653679653694</v>
+      </c>
+      <c r="BI14" s="8">
+        <f t="shared" si="17"/>
+        <v>3.0761904761904746</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>148</v>
       </c>
@@ -3777,12 +4056,33 @@
         <f t="shared" si="13"/>
         <v>0.28571428571428581</v>
       </c>
-      <c r="BC15" s="8">
+      <c r="BC15" s="13">
+        <v>20.25</v>
+      </c>
+      <c r="BD15" s="7">
         <f t="shared" si="14"/>
-        <v>26</v>
+        <v>-0.8125</v>
+      </c>
+      <c r="BE15" s="13">
+        <v>10.272727272727272</v>
+      </c>
+      <c r="BF15" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.49270482603815952</v>
+      </c>
+      <c r="BG15" s="13">
+        <v>14.399999999999991</v>
+      </c>
+      <c r="BH15" s="7">
+        <f t="shared" si="16"/>
+        <v>0.40176991150442432</v>
+      </c>
+      <c r="BI15" s="8">
+        <f t="shared" si="17"/>
+        <v>2.5999999999999979</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>149</v>
       </c>
@@ -3969,12 +4269,33 @@
         <f t="shared" si="13"/>
         <v>-0.38673218673218657</v>
       </c>
-      <c r="BC16" s="8">
+      <c r="BC16" s="13">
+        <v>18.600000000000012</v>
+      </c>
+      <c r="BD16" s="7">
         <f t="shared" si="14"/>
-        <v>17.152727272727276</v>
+        <v>-0.34423076923076906</v>
+      </c>
+      <c r="BE16" s="13">
+        <v>10.846153846153848</v>
+      </c>
+      <c r="BF16" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.41687344913151392</v>
+      </c>
+      <c r="BG16" s="13">
+        <v>8.3076923076923137</v>
+      </c>
+      <c r="BH16" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.23404255319148887</v>
+      </c>
+      <c r="BI16" s="8">
+        <f t="shared" si="17"/>
+        <v>4.3169230769230804</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>150</v>
       </c>
@@ -4161,12 +4482,33 @@
         <f t="shared" si="13"/>
         <v>-0.29651162790697666</v>
       </c>
-      <c r="BC17" s="8">
+      <c r="BC17" s="13">
+        <v>22</v>
+      </c>
+      <c r="BD17" s="7">
         <f t="shared" si="14"/>
-        <v>15.689655172413794</v>
+        <v>-0.63636363636363635</v>
+      </c>
+      <c r="BE17" s="13">
+        <v>4.7884615384615383</v>
+      </c>
+      <c r="BF17" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.78234265734265729</v>
+      </c>
+      <c r="BG17" s="13">
+        <v>3.0192307692307701</v>
+      </c>
+      <c r="BH17" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.36947791164658617</v>
+      </c>
+      <c r="BI17" s="8">
+        <f t="shared" si="17"/>
+        <v>-0.16710875331564964</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>151</v>
       </c>
@@ -4353,12 +4695,33 @@
         <f t="shared" si="13"/>
         <v>-9.8785425101215338E-2</v>
       </c>
-      <c r="BC18" s="8">
+      <c r="BC18" s="13">
+        <v>16.266666666666655</v>
+      </c>
+      <c r="BD18" s="7">
         <f t="shared" si="14"/>
-        <v>11.409756097560969</v>
+        <v>-0.48846960167714892</v>
+      </c>
+      <c r="BE18" s="13">
+        <v>4.9615384615384617</v>
+      </c>
+      <c r="BF18" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.69498738965952056</v>
+      </c>
+      <c r="BG18" s="13">
+        <v>3.153846153846156</v>
+      </c>
+      <c r="BH18" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.36434108527131737</v>
+      </c>
+      <c r="BI18" s="8">
+        <f t="shared" si="17"/>
+        <v>0.2307692307692315</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>152</v>
       </c>
@@ -4545,12 +4908,33 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC19" s="8">
+      <c r="BC19" s="13">
+        <v>9</v>
+      </c>
+      <c r="BD19" s="7">
         <f t="shared" si="14"/>
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BF19" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="BG19" s="13">
+        <v>4</v>
+      </c>
+      <c r="BH19" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.2</v>
+      </c>
+      <c r="BI19" s="8">
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>153</v>
       </c>
@@ -4737,12 +5121,33 @@
         <f t="shared" si="13"/>
         <v>-8.8311688311688522E-2</v>
       </c>
-      <c r="BC20" s="8">
+      <c r="BC20" s="13">
+        <v>250</v>
+      </c>
+      <c r="BD20" s="7">
         <f t="shared" si="14"/>
-        <v>50.022320830862782</v>
+        <v>-0.27837756785125195</v>
+      </c>
+      <c r="BE20" s="13">
+        <v>139.66666666666666</v>
+      </c>
+      <c r="BF20" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.44133333333333336</v>
+      </c>
+      <c r="BG20" s="13">
+        <v>91.666666666666686</v>
+      </c>
+      <c r="BH20" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.34367541766109766</v>
+      </c>
+      <c r="BI20" s="8">
+        <f t="shared" si="17"/>
+        <v>12.500245459008347</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>154</v>
       </c>
@@ -4929,12 +5334,33 @@
         <f t="shared" si="13"/>
         <v>-8.8311688311688952E-2</v>
       </c>
-      <c r="BC21" s="8">
+      <c r="BC21" s="13">
+        <v>65.181818181818215</v>
+      </c>
+      <c r="BD21" s="7">
         <f t="shared" si="14"/>
-        <v>15.388849978988647</v>
+        <v>-0.38717948717948647</v>
+      </c>
+      <c r="BE21" s="13">
+        <v>38.571428571428562</v>
+      </c>
+      <c r="BF21" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.40824865511058028</v>
+      </c>
+      <c r="BG21" s="13">
+        <v>39</v>
+      </c>
+      <c r="BH21" s="7">
+        <f t="shared" si="16"/>
+        <v>1.1111111111111285E-2</v>
+      </c>
+      <c r="BI21" s="8">
+        <f t="shared" si="17"/>
+        <v>5.0092449922958391</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>155</v>
       </c>
@@ -5121,12 +5547,33 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC22" s="8">
+      <c r="BC22" s="13">
+        <v>100</v>
+      </c>
+      <c r="BD22" s="7">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="13">
+        <v>100</v>
+      </c>
+      <c r="BF22" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BG22" s="13">
+        <v>10</v>
+      </c>
+      <c r="BH22" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.9</v>
+      </c>
+      <c r="BI22" s="8">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>156</v>
       </c>
@@ -5313,12 +5760,33 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC23" s="8">
+      <c r="BC23" s="13">
+        <v>150</v>
+      </c>
+      <c r="BD23" s="7">
         <f t="shared" si="14"/>
-        <v>17.75</v>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="13">
+        <v>150</v>
+      </c>
+      <c r="BF23" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BG23" s="13">
+        <v>18</v>
+      </c>
+      <c r="BH23" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.88</v>
+      </c>
+      <c r="BI23" s="8">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>157</v>
       </c>
@@ -5505,12 +5973,33 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC24" s="8">
+      <c r="BC24" s="13">
+        <v>14</v>
+      </c>
+      <c r="BD24" s="7">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="13">
+        <v>28</v>
+      </c>
+      <c r="BF24" s="7">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
+      <c r="BG24" s="13">
+        <v>28</v>
+      </c>
+      <c r="BH24" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI24" s="8">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>158</v>
       </c>
@@ -5697,12 +6186,33 @@
         <f t="shared" si="13"/>
         <v>-0.4067796610169484</v>
       </c>
-      <c r="BC25" s="8">
+      <c r="BC25" s="13">
+        <v>11.285714285714302</v>
+      </c>
+      <c r="BD25" s="7">
         <f t="shared" si="14"/>
+        <v>0.61224489795918602</v>
+      </c>
+      <c r="BE25" s="13">
+        <v>8</v>
+      </c>
+      <c r="BF25" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.29113924050633017</v>
+      </c>
+      <c r="BG25" s="13">
+        <v>7</v>
+      </c>
+      <c r="BH25" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.125</v>
+      </c>
+      <c r="BI25" s="8">
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>159</v>
       </c>
@@ -5889,12 +6399,33 @@
         <f t="shared" si="13"/>
         <v>-0.52978056426332309</v>
       </c>
-      <c r="BC26" s="8">
+      <c r="BC26" s="13">
+        <v>6.9272727272727321</v>
+      </c>
+      <c r="BD26" s="7">
         <f t="shared" si="14"/>
-        <v>0.54465004022526042</v>
+        <v>-0.49199999999999933</v>
+      </c>
+      <c r="BE26" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="BF26" s="7">
+        <f t="shared" si="15"/>
+        <v>1.381889763779526</v>
+      </c>
+      <c r="BG26" s="13">
+        <v>7</v>
+      </c>
+      <c r="BH26" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.5757575757575758</v>
+      </c>
+      <c r="BI26" s="8">
+        <f t="shared" si="17"/>
+        <v>-0.20707964601769915</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>160</v>
       </c>
@@ -6081,12 +6612,33 @@
         <f t="shared" si="13"/>
         <v>-3.5947712418300311E-2</v>
       </c>
-      <c r="BC27" s="8">
+      <c r="BC27" s="13">
+        <v>438.89845094664372</v>
+      </c>
+      <c r="BD27" s="7">
         <f t="shared" si="14"/>
-        <v>8.7536137965693701</v>
+        <v>-1.2106537530266052E-2</v>
+      </c>
+      <c r="BE27" s="13">
+        <v>198.49281295064426</v>
+      </c>
+      <c r="BF27" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.54774774774774782</v>
+      </c>
+      <c r="BG27" s="13">
+        <v>155.18289373711056</v>
+      </c>
+      <c r="BH27" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.21819389110225784</v>
+      </c>
+      <c r="BI27" s="8">
+        <f t="shared" si="17"/>
+        <v>2.4068692368191127</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>161</v>
       </c>
@@ -6273,12 +6825,33 @@
         <f t="shared" si="13"/>
         <v>-3.5947712418300595E-2</v>
       </c>
-      <c r="BC28" s="8">
+      <c r="BC28" s="13">
+        <v>485.71428571428572</v>
+      </c>
+      <c r="BD28" s="7">
         <f t="shared" si="14"/>
-        <v>7.7623762376237622</v>
+        <v>-1.2106537530266337E-2</v>
+      </c>
+      <c r="BE28" s="13">
+        <v>219.6653796653797</v>
+      </c>
+      <c r="BF28" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.5477477477477477</v>
+      </c>
+      <c r="BG28" s="13">
+        <v>171.73573573573572</v>
+      </c>
+      <c r="BH28" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.21819389110225784</v>
+      </c>
+      <c r="BI28" s="8">
+        <f t="shared" si="17"/>
+        <v>2.0606368744982602</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>162</v>
       </c>
@@ -6465,12 +7038,33 @@
         <f t="shared" si="13"/>
         <v>-0.40044742729306493</v>
       </c>
-      <c r="BC29" s="8">
+      <c r="BC29" s="13">
+        <v>27.5</v>
+      </c>
+      <c r="BD29" s="7">
         <f t="shared" si="14"/>
-        <v>0.54615384615384588</v>
+        <v>-0.5074626865671642</v>
+      </c>
+      <c r="BE29" s="13">
+        <v>28.833333333333332</v>
+      </c>
+      <c r="BF29" s="7">
+        <f t="shared" si="15"/>
+        <v>4.8484848484848297E-2</v>
+      </c>
+      <c r="BG29" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="BH29" s="7">
+        <f t="shared" si="16"/>
+        <v>0.47398843930635848</v>
+      </c>
+      <c r="BI29" s="8">
+        <f t="shared" si="17"/>
+        <v>0.17692307692307679</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>163</v>
       </c>
@@ -6657,12 +7251,33 @@
         <f t="shared" si="13"/>
         <v>1.6036644165863054</v>
       </c>
-      <c r="BC30" s="8">
+      <c r="BC30" s="13">
+        <v>6.9135802469135754</v>
+      </c>
+      <c r="BD30" s="7">
         <f t="shared" si="14"/>
-        <v>2.8745387453874538</v>
+        <v>-0.53909465020576164</v>
+      </c>
+      <c r="BE30" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="BF30" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.49374999999999969</v>
+      </c>
+      <c r="BG30" s="13">
+        <v>5.1818181818181843</v>
+      </c>
+      <c r="BH30" s="7">
+        <f t="shared" si="16"/>
+        <v>0.48051948051948129</v>
+      </c>
+      <c r="BI30" s="8">
+        <f t="shared" si="17"/>
+        <v>0.33847702113384825</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>164</v>
       </c>
@@ -6849,12 +7464,33 @@
         <f t="shared" si="13"/>
         <v>-0.84858044164037849</v>
       </c>
-      <c r="BC31" s="8">
+      <c r="BC31" s="13">
+        <v>69.090909090909108</v>
+      </c>
+      <c r="BD31" s="7">
         <f t="shared" si="14"/>
-        <v>2.6772216547497454</v>
+        <v>-0.47222222222222221</v>
+      </c>
+      <c r="BE31" s="13">
+        <v>48.750000000000007</v>
+      </c>
+      <c r="BF31" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.2944078947368422</v>
+      </c>
+      <c r="BG31" s="13">
+        <v>41.363636363636374</v>
+      </c>
+      <c r="BH31" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.15151515151515141</v>
+      </c>
+      <c r="BI31" s="8">
+        <f t="shared" si="17"/>
+        <v>0.16189989785495412</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>165</v>
       </c>
@@ -7041,12 +7677,33 @@
         <f t="shared" si="13"/>
         <v>-2.597402597402592E-2</v>
       </c>
-      <c r="BC32" s="8">
+      <c r="BC32" s="13">
+        <v>5.0909090909090908</v>
+      </c>
+      <c r="BD32" s="7">
         <f t="shared" si="14"/>
-        <v>2.0303030303030307</v>
+        <v>0.11999999999999986</v>
+      </c>
+      <c r="BE32" s="13">
+        <v>3</v>
+      </c>
+      <c r="BF32" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.4107142857142857</v>
+      </c>
+      <c r="BG32" s="13">
+        <v>3</v>
+      </c>
+      <c r="BH32" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI32" s="8">
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>166</v>
       </c>
@@ -7233,12 +7890,33 @@
         <f t="shared" si="13"/>
         <v>-0.69929906542056031</v>
       </c>
-      <c r="BC33" s="8">
+      <c r="BC33" s="13">
+        <v>11.666666666666657</v>
+      </c>
+      <c r="BD33" s="7">
         <f t="shared" si="14"/>
-        <v>2.1713709677419355</v>
+        <v>-0.34731934731934788</v>
+      </c>
+      <c r="BE33" s="13">
+        <v>7.6666666666666741</v>
+      </c>
+      <c r="BF33" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.34285714285714164</v>
+      </c>
+      <c r="BG33" s="13">
+        <v>6.4444444444444526</v>
+      </c>
+      <c r="BH33" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.1594202898550722</v>
+      </c>
+      <c r="BI33" s="8">
+        <f t="shared" si="17"/>
+        <v>0.14336917562724152</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>167</v>
       </c>
@@ -7380,7 +8058,7 @@
         <v>128</v>
       </c>
       <c r="AP34" s="7">
-        <f t="shared" ref="AP34:AP48" si="15">(AO34/AM34*100-100)/100</f>
+        <f t="shared" ref="AP34:AP48" si="18">(AO34/AM34*100-100)/100</f>
         <v>0.55017301038062272</v>
       </c>
       <c r="AQ34" s="13">
@@ -7425,12 +8103,33 @@
         <f t="shared" si="13"/>
         <v>-0.65234567901234575</v>
       </c>
-      <c r="BC34" s="8">
+      <c r="BC34" s="13">
+        <v>165.71428571428575</v>
+      </c>
+      <c r="BD34" s="7">
         <f t="shared" si="14"/>
-        <v>3.8672760511882998</v>
+        <v>-0.19084821428571416</v>
+      </c>
+      <c r="BE34" s="13">
+        <v>80.285714285714306</v>
+      </c>
+      <c r="BF34" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.51551724137931032</v>
+      </c>
+      <c r="BG34" s="13">
+        <v>81.200000000000017</v>
+      </c>
+      <c r="BH34" s="7">
+        <f t="shared" si="16"/>
+        <v>1.138790035587192E-2</v>
+      </c>
+      <c r="BI34" s="8">
+        <f t="shared" si="17"/>
+        <v>0.92979890310786117</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>168</v>
       </c>
@@ -7572,7 +8271,7 @@
         <v>1.4250000000000005</v>
       </c>
       <c r="AP35" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.30434782608695615</v>
       </c>
       <c r="AQ35" s="13">
@@ -7617,12 +8316,33 @@
         <f t="shared" si="13"/>
         <v>-0.38740458015267187</v>
       </c>
-      <c r="BC35" s="8">
+      <c r="BC35" s="13">
+        <v>6.3007458459214511</v>
+      </c>
+      <c r="BD35" s="7">
         <f t="shared" si="14"/>
-        <v>1.6103474320241691</v>
+        <v>-0.34345794392523343</v>
+      </c>
+      <c r="BE35" s="13">
+        <v>3.2062499999999989</v>
+      </c>
+      <c r="BF35" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.49113167259786505</v>
+      </c>
+      <c r="BG35" s="13">
+        <v>2.850000000000001</v>
+      </c>
+      <c r="BH35" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.11111111111111044</v>
+      </c>
+      <c r="BI35" s="8">
+        <f t="shared" si="17"/>
+        <v>-0.22479999999999961</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>169</v>
       </c>
@@ -7764,7 +8484,7 @@
         <v>1.3458333333333319</v>
       </c>
       <c r="AP36" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.27956989247311709</v>
       </c>
       <c r="AQ36" s="13">
@@ -7809,12 +8529,33 @@
         <f t="shared" si="13"/>
         <v>-0.38740458015267143</v>
       </c>
-      <c r="BC36" s="8">
+      <c r="BC36" s="13">
+        <v>5.5614583333333405</v>
+      </c>
+      <c r="BD36" s="7">
         <f t="shared" si="14"/>
-        <v>2.7745682210708149</v>
+        <v>-0.34345794392523332</v>
+      </c>
+      <c r="BE36" s="13">
+        <v>2.6718750000000004</v>
+      </c>
+      <c r="BF36" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.51957295373665535</v>
+      </c>
+      <c r="BG36" s="13">
+        <v>2.6556818181818183</v>
+      </c>
+      <c r="BH36" s="7">
+        <f t="shared" si="16"/>
+        <v>-6.0606060606062332E-3</v>
+      </c>
+      <c r="BI36" s="8">
+        <f t="shared" si="17"/>
+        <v>0.18336081017428157</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>170</v>
       </c>
@@ -7956,7 +8697,7 @@
         <v>2.25</v>
       </c>
       <c r="AP37" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.38235294117647067</v>
       </c>
       <c r="AQ37" s="13">
@@ -8001,12 +8742,33 @@
         <f t="shared" si="13"/>
         <v>-0.67003367003366987</v>
       </c>
-      <c r="BC37" s="8">
+      <c r="BC37" s="13">
+        <v>6.7272727272727311</v>
+      </c>
+      <c r="BD37" s="7">
         <f t="shared" si="14"/>
-        <v>4.9671977507029369E-2</v>
+        <v>0.32142857142857195</v>
+      </c>
+      <c r="BE37" s="13">
+        <v>2.75</v>
+      </c>
+      <c r="BF37" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.59121621621621645</v>
+      </c>
+      <c r="BG37" s="13">
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="BH37" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.23636363636363625</v>
+      </c>
+      <c r="BI37" s="8">
+        <f t="shared" si="17"/>
+        <v>-0.56701030927835039</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>171</v>
       </c>
@@ -8148,7 +8910,7 @@
         <v>5.5999999999999979</v>
       </c>
       <c r="AP38" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.2727272727272721</v>
       </c>
       <c r="AQ38" s="13">
@@ -8193,12 +8955,33 @@
         <f t="shared" si="13"/>
         <v>-0.68648737832040918</v>
       </c>
-      <c r="BC38" s="8">
+      <c r="BC38" s="13">
+        <v>8.2169961175586543</v>
+      </c>
+      <c r="BD38" s="7">
         <f t="shared" si="14"/>
-        <v>1.0385287356321833</v>
+        <v>-0.19383072959131781</v>
+      </c>
+      <c r="BE38" s="13">
+        <v>5.3980036297640632</v>
+      </c>
+      <c r="BF38" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.34306849455250071</v>
+      </c>
+      <c r="BG38" s="13">
+        <v>5.1220689655172427</v>
+      </c>
+      <c r="BH38" s="7">
+        <f t="shared" si="16"/>
+        <v>-5.1117910096492664E-2</v>
+      </c>
+      <c r="BI38" s="8">
+        <f t="shared" si="17"/>
+        <v>2.4413793103448427E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>172</v>
       </c>
@@ -8340,7 +9123,7 @@
         <v>435</v>
       </c>
       <c r="AP39" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5777777777777777</v>
       </c>
       <c r="AQ39" s="13">
@@ -8385,12 +9168,33 @@
         <f t="shared" si="13"/>
         <v>-0.7345890410958904</v>
       </c>
-      <c r="BC39" s="8">
+      <c r="BC39" s="13">
+        <v>63.636363636363676</v>
+      </c>
+      <c r="BD39" s="7">
         <f t="shared" si="14"/>
-        <v>5.2691771269177128</v>
+        <v>-0.58944281524926656</v>
+      </c>
+      <c r="BE39" s="13">
+        <v>88.333333333333343</v>
+      </c>
+      <c r="BF39" s="7">
+        <f t="shared" si="15"/>
+        <v>0.38809523809523738</v>
+      </c>
+      <c r="BG39" s="13">
+        <v>105</v>
+      </c>
+      <c r="BH39" s="7">
+        <f t="shared" si="16"/>
+        <v>0.18867924528301885</v>
+      </c>
+      <c r="BI39" s="8">
+        <f t="shared" si="17"/>
+        <v>3.2468619246861925</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>173</v>
       </c>
@@ -8532,7 +9336,7 @@
         <v>165</v>
       </c>
       <c r="AP40" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-3.7500000000000568E-2</v>
       </c>
       <c r="AQ40" s="13">
@@ -8577,12 +9381,33 @@
         <f t="shared" si="13"/>
         <v>-0.51020408163265285</v>
       </c>
-      <c r="BC40" s="8">
+      <c r="BC40" s="13">
+        <v>82.125</v>
+      </c>
+      <c r="BD40" s="7">
         <f t="shared" si="14"/>
-        <v>5.322961617079268</v>
+        <v>-0.4011718750000004</v>
+      </c>
+      <c r="BE40" s="13">
+        <v>77.5</v>
+      </c>
+      <c r="BF40" s="7">
+        <f t="shared" si="15"/>
+        <v>-5.631659056316593E-2</v>
+      </c>
+      <c r="BG40" s="13">
+        <v>107.22222222222219</v>
+      </c>
+      <c r="BH40" s="7">
+        <f t="shared" si="16"/>
+        <v>0.38351254480286684</v>
+      </c>
+      <c r="BI40" s="8">
+        <f t="shared" si="17"/>
+        <v>3.9434728846493541</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>174</v>
       </c>
@@ -8724,7 +9549,7 @@
         <v>1218.1875</v>
       </c>
       <c r="AP41" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.2522542831379617</v>
       </c>
       <c r="AQ41" s="13">
@@ -8769,12 +9594,33 @@
         <f t="shared" si="13"/>
         <v>0.27272727272727265</v>
       </c>
-      <c r="BC41" s="8">
+      <c r="BC41" s="13">
+        <v>465</v>
+      </c>
+      <c r="BD41" s="7">
         <f t="shared" si="14"/>
-        <v>57.94736842105263</v>
+        <v>-0.88928571428571435</v>
+      </c>
+      <c r="BE41" s="13">
+        <v>550.5</v>
+      </c>
+      <c r="BF41" s="7">
+        <f t="shared" si="15"/>
+        <v>0.18387096774193551</v>
+      </c>
+      <c r="BG41" s="13">
+        <v>537.75</v>
+      </c>
+      <c r="BH41" s="7">
+        <f t="shared" si="16"/>
+        <v>-2.31607629427792E-2</v>
+      </c>
+      <c r="BI41" s="8">
+        <f t="shared" si="17"/>
+        <v>6.5473684210526315</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>175</v>
       </c>
@@ -8811,7 +9657,7 @@
         <v>25</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" ref="L42:L44" si="16">(K42/I42*100-100)/100</f>
+        <f t="shared" ref="L42:L44" si="19">(K42/I42*100-100)/100</f>
         <v>1.9069767441860466</v>
       </c>
       <c r="M42" s="11">
@@ -8916,7 +9762,7 @@
         <v>50</v>
       </c>
       <c r="AP42" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666707E-2</v>
       </c>
       <c r="AQ42" s="13">
@@ -8961,12 +9807,33 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC42" s="8">
+      <c r="BC42" s="13">
+        <v>57.954545454545453</v>
+      </c>
+      <c r="BD42" s="7">
         <f t="shared" si="14"/>
-        <v>5.9767441860465116</v>
+        <v>-3.4090909090909068E-2</v>
+      </c>
+      <c r="BE42" s="13">
+        <v>50</v>
+      </c>
+      <c r="BF42" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.13725490196078424</v>
+      </c>
+      <c r="BG42" s="13">
+        <v>50</v>
+      </c>
+      <c r="BH42" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI42" s="8">
+        <f t="shared" si="17"/>
+        <v>4.8139534883720936</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>176</v>
       </c>
@@ -8996,14 +9863,14 @@
         <v>14.6</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" ref="J43:J44" si="17">(I43/G43*100-100)/100</f>
+        <f t="shared" ref="J43:J44" si="20">(I43/G43*100-100)/100</f>
         <v>0</v>
       </c>
       <c r="K43" s="6">
         <v>50</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.4246575342465753</v>
       </c>
       <c r="M43" s="11">
@@ -9108,7 +9975,7 @@
         <v>100</v>
       </c>
       <c r="AP43" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666707E-2</v>
       </c>
       <c r="AQ43" s="13">
@@ -9153,12 +10020,33 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC43" s="8">
+      <c r="BC43" s="13">
+        <v>115.90909090909091</v>
+      </c>
+      <c r="BD43" s="7">
         <f t="shared" si="14"/>
-        <v>7.2191780821917817</v>
+        <v>-3.4090909090909068E-2</v>
+      </c>
+      <c r="BE43" s="13">
+        <v>100</v>
+      </c>
+      <c r="BF43" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.13725490196078424</v>
+      </c>
+      <c r="BG43" s="13">
+        <v>100</v>
+      </c>
+      <c r="BH43" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI43" s="8">
+        <f t="shared" si="17"/>
+        <v>5.8493150684931505</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>177</v>
       </c>
@@ -9188,14 +10076,14 @@
         <v>24</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K44" s="6">
         <v>100</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.166666666666667</v>
       </c>
       <c r="M44" s="11">
@@ -9300,7 +10188,7 @@
         <v>200</v>
       </c>
       <c r="AP44" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666707E-2</v>
       </c>
       <c r="AQ44" s="13">
@@ -9345,12 +10233,33 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC44" s="8">
+      <c r="BC44" s="13">
+        <v>231.81818181818181</v>
+      </c>
+      <c r="BD44" s="7">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>-3.4090909090909068E-2</v>
+      </c>
+      <c r="BE44" s="13">
+        <v>200</v>
+      </c>
+      <c r="BF44" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.13725490196078424</v>
+      </c>
+      <c r="BG44" s="13">
+        <v>200</v>
+      </c>
+      <c r="BH44" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI44" s="8">
+        <f t="shared" si="17"/>
+        <v>7.3333333333333339</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>186</v>
       </c>
@@ -9462,7 +10371,7 @@
         <v>4.75</v>
       </c>
       <c r="AP45" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.11920529801324492</v>
       </c>
       <c r="AQ45" s="13">
@@ -9507,12 +10416,33 @@
         <f t="shared" si="13"/>
         <v>-0.6875</v>
       </c>
-      <c r="BC45" s="16">
-        <f>(BA45/M45*100-100)/100</f>
-        <v>-0.64516129032258063</v>
+      <c r="BC45" s="13">
+        <v>5</v>
+      </c>
+      <c r="BD45" s="7">
+        <f t="shared" si="14"/>
+        <v>-9.0909090909090939E-2</v>
+      </c>
+      <c r="BE45" s="13">
+        <v>4</v>
+      </c>
+      <c r="BF45" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.2</v>
+      </c>
+      <c r="BG45" s="13">
+        <v>4</v>
+      </c>
+      <c r="BH45" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI45" s="16">
+        <f>(BG45/M45*100-100)/100</f>
+        <v>-0.74193548387096764</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>188</v>
       </c>
@@ -9623,7 +10553,7 @@
         <v>11.25</v>
       </c>
       <c r="AP46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42212189616252827</v>
       </c>
       <c r="AQ46" s="13">
@@ -9668,12 +10598,33 @@
         <f t="shared" si="13"/>
         <v>-0.55844155844155841</v>
       </c>
-      <c r="BC46" s="16">
-        <f t="shared" ref="BC46:BC48" si="18">(BA46/M46*100-100)/100</f>
-        <v>-0.44363636363636372</v>
+      <c r="BC46" s="13">
+        <v>12.636363636363637</v>
+      </c>
+      <c r="BD46" s="7">
+        <f t="shared" si="14"/>
+        <v>-9.1503267973856162E-2</v>
+      </c>
+      <c r="BE46" s="13">
+        <v>9.25</v>
+      </c>
+      <c r="BF46" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.26798561151079142</v>
+      </c>
+      <c r="BG46" s="13">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="BH46" s="7">
+        <f t="shared" si="16"/>
+        <v>-6.3063063063063113E-2</v>
+      </c>
+      <c r="BI46" s="16">
+        <f t="shared" ref="BI46:BI48" si="21">(BG46/M46*100-100)/100</f>
+        <v>-0.65333333333333343</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>190</v>
       </c>
@@ -9784,7 +10735,7 @@
         <v>62.777777777777779</v>
       </c>
       <c r="AP47" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42241587993221968</v>
       </c>
       <c r="AQ47" s="13">
@@ -9829,12 +10780,33 @@
         <f t="shared" si="13"/>
         <v>-0.65121997351995464</v>
       </c>
-      <c r="BC47" s="16">
-        <f t="shared" si="18"/>
-        <v>0.69485294117647045</v>
+      <c r="BC47" s="13">
+        <v>129.30555555555554</v>
+      </c>
+      <c r="BD47" s="7">
+        <f t="shared" si="14"/>
+        <v>-4.6336466618462427E-2</v>
+      </c>
+      <c r="BE47" s="13">
+        <v>88.333333333333329</v>
+      </c>
+      <c r="BF47" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.31686358754027921</v>
+      </c>
+      <c r="BG47" s="13">
+        <v>50.714285714285715</v>
+      </c>
+      <c r="BH47" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.42587601078167109</v>
+      </c>
+      <c r="BI47" s="16">
+        <f t="shared" si="21"/>
+        <v>-0.3660714285714286</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>193</v>
       </c>
@@ -9945,7 +10917,7 @@
         <v>125.55555555555556</v>
       </c>
       <c r="AP48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42241587993221968</v>
       </c>
       <c r="AQ48" s="13">
@@ -9990,9 +10962,30 @@
         <f t="shared" si="13"/>
         <v>-0.65121997351995464</v>
       </c>
-      <c r="BC48" s="16">
-        <f t="shared" si="18"/>
-        <v>0.69485294117647045</v>
+      <c r="BC48" s="13">
+        <v>258.61111111111109</v>
+      </c>
+      <c r="BD48" s="7">
+        <f t="shared" si="14"/>
+        <v>-4.6336466618462427E-2</v>
+      </c>
+      <c r="BE48" s="13">
+        <v>176.66666666666666</v>
+      </c>
+      <c r="BF48" s="7">
+        <f t="shared" si="15"/>
+        <v>-0.31686358754027921</v>
+      </c>
+      <c r="BG48" s="13">
+        <v>101.42857142857143</v>
+      </c>
+      <c r="BH48" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.42587601078167109</v>
+      </c>
+      <c r="BI48" s="16">
+        <f t="shared" si="21"/>
+        <v>-0.3660714285714286</v>
       </c>
     </row>
   </sheetData>
